--- a/data/equip list.xlsx
+++ b/data/equip list.xlsx
@@ -11,7 +11,6 @@
     <sheet name="调整顺序格式" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="267">
   <si>
     <t>#</t>
   </si>
@@ -820,13 +819,30 @@
   <si>
     <t>穿甲值</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海装备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型三连装炮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型副炮</t>
+  </si>
+  <si>
+    <t>深海高速鱼雷</t>
+  </si>
+  <si>
+    <t>深海高速轰炸机</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,6 +876,13 @@
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -915,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -938,6 +961,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7760,10 +7784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S230"/>
+  <dimension ref="A1:S238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="O238" sqref="O238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7838,7 +7862,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(S2="超长","4",IF(S2="长","3",IF(S2="中","2",IF(S2="短","1",IF(S2="无","0")))))</f>
+        <f t="shared" ref="D2:D65" si="0">IF(S2="超长","4",IF(S2="长","3",IF(S2="中","2",IF(S2="短","1",IF(S2="无","0")))))</f>
         <v>0</v>
       </c>
       <c r="E2" s="2">
@@ -7895,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="str">
-        <f>IF(S3="超长","4",IF(S3="长","3",IF(S3="中","2",IF(S3="短","1",IF(S3="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E3" s="2">
@@ -7952,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="str">
-        <f>IF(S4="超长","4",IF(S4="长","3",IF(S4="中","2",IF(S4="短","1",IF(S4="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4" s="2">
@@ -8009,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="str">
-        <f>IF(S5="超长","4",IF(S5="长","3",IF(S5="中","2",IF(S5="短","1",IF(S5="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5" s="2">
@@ -8066,7 +8090,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="str">
-        <f>IF(S6="超长","4",IF(S6="长","3",IF(S6="中","2",IF(S6="短","1",IF(S6="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6" s="2">
@@ -8123,7 +8147,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="str">
-        <f>IF(S7="超长","4",IF(S7="长","3",IF(S7="中","2",IF(S7="短","1",IF(S7="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7" s="2">
@@ -8180,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="str">
-        <f>IF(S8="超长","4",IF(S8="长","3",IF(S8="中","2",IF(S8="短","1",IF(S8="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="2">
@@ -8237,7 +8261,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="str">
-        <f>IF(S9="超长","4",IF(S9="长","3",IF(S9="中","2",IF(S9="短","1",IF(S9="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" s="2">
@@ -8294,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="str">
-        <f>IF(S10="超长","4",IF(S10="长","3",IF(S10="中","2",IF(S10="短","1",IF(S10="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" s="2">
@@ -8351,7 +8375,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="str">
-        <f>IF(S11="超长","4",IF(S11="长","3",IF(S11="中","2",IF(S11="短","1",IF(S11="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" s="2">
@@ -8408,7 +8432,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="str">
-        <f>IF(S12="超长","4",IF(S12="长","3",IF(S12="中","2",IF(S12="短","1",IF(S12="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12" s="2">
@@ -8465,7 +8489,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="str">
-        <f>IF(S13="超长","4",IF(S13="长","3",IF(S13="中","2",IF(S13="短","1",IF(S13="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="2">
@@ -8522,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="str">
-        <f>IF(S14="超长","4",IF(S14="长","3",IF(S14="中","2",IF(S14="短","1",IF(S14="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="2">
@@ -8579,7 +8603,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="str">
-        <f>IF(S15="超长","4",IF(S15="长","3",IF(S15="中","2",IF(S15="短","1",IF(S15="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E15" s="2">
@@ -8636,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="str">
-        <f>IF(S16="超长","4",IF(S16="长","3",IF(S16="中","2",IF(S16="短","1",IF(S16="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E16" s="2">
@@ -8693,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="str">
-        <f>IF(S17="超长","4",IF(S17="长","3",IF(S17="中","2",IF(S17="短","1",IF(S17="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E17" s="2">
@@ -8750,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="str">
-        <f>IF(S18="超长","4",IF(S18="长","3",IF(S18="中","2",IF(S18="短","1",IF(S18="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E18" s="2">
@@ -8807,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="str">
-        <f>IF(S19="超长","4",IF(S19="长","3",IF(S19="中","2",IF(S19="短","1",IF(S19="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E19" s="2">
@@ -8864,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="str">
-        <f>IF(S20="超长","4",IF(S20="长","3",IF(S20="中","2",IF(S20="短","1",IF(S20="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E20" s="2">
@@ -8921,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="str">
-        <f>IF(S21="超长","4",IF(S21="长","3",IF(S21="中","2",IF(S21="短","1",IF(S21="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E21" s="2">
@@ -8978,7 +9002,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="str">
-        <f>IF(S22="超长","4",IF(S22="长","3",IF(S22="中","2",IF(S22="短","1",IF(S22="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E22" s="2">
@@ -9035,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="str">
-        <f>IF(S23="超长","4",IF(S23="长","3",IF(S23="中","2",IF(S23="短","1",IF(S23="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E23" s="2">
@@ -9092,7 +9116,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="str">
-        <f>IF(S24="超长","4",IF(S24="长","3",IF(S24="中","2",IF(S24="短","1",IF(S24="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E24" s="2">
@@ -9149,7 +9173,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="str">
-        <f>IF(S25="超长","4",IF(S25="长","3",IF(S25="中","2",IF(S25="短","1",IF(S25="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E25" s="2">
@@ -9206,7 +9230,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="str">
-        <f>IF(S26="超长","4",IF(S26="长","3",IF(S26="中","2",IF(S26="短","1",IF(S26="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E26" s="2">
@@ -9263,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="str">
-        <f>IF(S27="超长","4",IF(S27="长","3",IF(S27="中","2",IF(S27="短","1",IF(S27="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E27" s="2">
@@ -9320,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="str">
-        <f>IF(S28="超长","4",IF(S28="长","3",IF(S28="中","2",IF(S28="短","1",IF(S28="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E28" s="2">
@@ -9377,7 +9401,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="str">
-        <f>IF(S29="超长","4",IF(S29="长","3",IF(S29="中","2",IF(S29="短","1",IF(S29="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E29" s="2">
@@ -9434,7 +9458,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="str">
-        <f>IF(S30="超长","4",IF(S30="长","3",IF(S30="中","2",IF(S30="短","1",IF(S30="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E30" s="2">
@@ -9491,7 +9515,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="str">
-        <f>IF(S31="超长","4",IF(S31="长","3",IF(S31="中","2",IF(S31="短","1",IF(S31="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E31" s="2">
@@ -9548,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="str">
-        <f>IF(S32="超长","4",IF(S32="长","3",IF(S32="中","2",IF(S32="短","1",IF(S32="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E32" s="2">
@@ -9605,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="str">
-        <f>IF(S33="超长","4",IF(S33="长","3",IF(S33="中","2",IF(S33="短","1",IF(S33="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E33" s="2">
@@ -9662,7 +9686,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="str">
-        <f>IF(S34="超长","4",IF(S34="长","3",IF(S34="中","2",IF(S34="短","1",IF(S34="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E34" s="2">
@@ -9719,7 +9743,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="str">
-        <f>IF(S35="超长","4",IF(S35="长","3",IF(S35="中","2",IF(S35="短","1",IF(S35="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E35" s="2">
@@ -9776,7 +9800,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="str">
-        <f>IF(S36="超长","4",IF(S36="长","3",IF(S36="中","2",IF(S36="短","1",IF(S36="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E36" s="2">
@@ -9833,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="str">
-        <f>IF(S37="超长","4",IF(S37="长","3",IF(S37="中","2",IF(S37="短","1",IF(S37="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E37" s="2">
@@ -9890,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="str">
-        <f>IF(S38="超长","4",IF(S38="长","3",IF(S38="中","2",IF(S38="短","1",IF(S38="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E38" s="2">
@@ -9947,7 +9971,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="str">
-        <f>IF(S39="超长","4",IF(S39="长","3",IF(S39="中","2",IF(S39="短","1",IF(S39="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E39" s="2">
@@ -10004,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="D40" t="str">
-        <f>IF(S40="超长","4",IF(S40="长","3",IF(S40="中","2",IF(S40="短","1",IF(S40="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E40" s="2">
@@ -10061,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="str">
-        <f>IF(S41="超长","4",IF(S41="长","3",IF(S41="中","2",IF(S41="短","1",IF(S41="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E41" s="2">
@@ -10118,7 +10142,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="str">
-        <f>IF(S42="超长","4",IF(S42="长","3",IF(S42="中","2",IF(S42="短","1",IF(S42="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E42" s="2">
@@ -10175,7 +10199,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="str">
-        <f>IF(S43="超长","4",IF(S43="长","3",IF(S43="中","2",IF(S43="短","1",IF(S43="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E43" s="2">
@@ -10232,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="str">
-        <f>IF(S44="超长","4",IF(S44="长","3",IF(S44="中","2",IF(S44="短","1",IF(S44="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E44" s="2">
@@ -10289,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="str">
-        <f>IF(S45="超长","4",IF(S45="长","3",IF(S45="中","2",IF(S45="短","1",IF(S45="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E45" s="2">
@@ -10346,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="str">
-        <f>IF(S46="超长","4",IF(S46="长","3",IF(S46="中","2",IF(S46="短","1",IF(S46="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E46" s="2">
@@ -10403,7 +10427,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="str">
-        <f>IF(S47="超长","4",IF(S47="长","3",IF(S47="中","2",IF(S47="短","1",IF(S47="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E47" s="2">
@@ -10460,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="str">
-        <f>IF(S48="超长","4",IF(S48="长","3",IF(S48="中","2",IF(S48="短","1",IF(S48="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E48" s="2">
@@ -10517,7 +10541,7 @@
         <v>1</v>
       </c>
       <c r="D49" t="str">
-        <f>IF(S49="超长","4",IF(S49="长","3",IF(S49="中","2",IF(S49="短","1",IF(S49="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E49" s="2">
@@ -10574,7 +10598,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="str">
-        <f>IF(S50="超长","4",IF(S50="长","3",IF(S50="中","2",IF(S50="短","1",IF(S50="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E50" s="2">
@@ -10631,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="str">
-        <f>IF(S51="超长","4",IF(S51="长","3",IF(S51="中","2",IF(S51="短","1",IF(S51="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E51" s="2">
@@ -10688,7 +10712,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="str">
-        <f>IF(S52="超长","4",IF(S52="长","3",IF(S52="中","2",IF(S52="短","1",IF(S52="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E52" s="2">
@@ -10745,7 +10769,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="str">
-        <f>IF(S53="超长","4",IF(S53="长","3",IF(S53="中","2",IF(S53="短","1",IF(S53="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E53" s="2">
@@ -10802,7 +10826,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="str">
-        <f>IF(S54="超长","4",IF(S54="长","3",IF(S54="中","2",IF(S54="短","1",IF(S54="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E54" s="2">
@@ -10859,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="str">
-        <f>IF(S55="超长","4",IF(S55="长","3",IF(S55="中","2",IF(S55="短","1",IF(S55="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E55" s="2">
@@ -10916,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="str">
-        <f>IF(S56="超长","4",IF(S56="长","3",IF(S56="中","2",IF(S56="短","1",IF(S56="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56" s="2">
@@ -10973,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="str">
-        <f>IF(S57="超长","4",IF(S57="长","3",IF(S57="中","2",IF(S57="短","1",IF(S57="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E57" s="2">
@@ -11030,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="str">
-        <f>IF(S58="超长","4",IF(S58="长","3",IF(S58="中","2",IF(S58="短","1",IF(S58="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E58" s="2">
@@ -11087,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="str">
-        <f>IF(S59="超长","4",IF(S59="长","3",IF(S59="中","2",IF(S59="短","1",IF(S59="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59" s="2">
@@ -11144,7 +11168,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="str">
-        <f>IF(S60="超长","4",IF(S60="长","3",IF(S60="中","2",IF(S60="短","1",IF(S60="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60" s="2">
@@ -11201,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="str">
-        <f>IF(S61="超长","4",IF(S61="长","3",IF(S61="中","2",IF(S61="短","1",IF(S61="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E61" s="2">
@@ -11258,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="str">
-        <f>IF(S62="超长","4",IF(S62="长","3",IF(S62="中","2",IF(S62="短","1",IF(S62="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E62" s="2">
@@ -11315,7 +11339,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="str">
-        <f>IF(S63="超长","4",IF(S63="长","3",IF(S63="中","2",IF(S63="短","1",IF(S63="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E63" s="2">
@@ -11372,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="str">
-        <f>IF(S64="超长","4",IF(S64="长","3",IF(S64="中","2",IF(S64="短","1",IF(S64="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E64" s="2">
@@ -11429,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="str">
-        <f>IF(S65="超长","4",IF(S65="长","3",IF(S65="中","2",IF(S65="短","1",IF(S65="无","0")))))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65" s="2">
@@ -11486,7 +11510,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="str">
-        <f>IF(S66="超长","4",IF(S66="长","3",IF(S66="中","2",IF(S66="短","1",IF(S66="无","0")))))</f>
+        <f t="shared" ref="D66:D129" si="1">IF(S66="超长","4",IF(S66="长","3",IF(S66="中","2",IF(S66="短","1",IF(S66="无","0")))))</f>
         <v>0</v>
       </c>
       <c r="E66" s="2">
@@ -11543,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="D67" t="str">
-        <f>IF(S67="超长","4",IF(S67="长","3",IF(S67="中","2",IF(S67="短","1",IF(S67="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E67" s="2">
@@ -11600,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="str">
-        <f>IF(S68="超长","4",IF(S68="长","3",IF(S68="中","2",IF(S68="短","1",IF(S68="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68" s="2">
@@ -11657,7 +11681,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="str">
-        <f>IF(S69="超长","4",IF(S69="长","3",IF(S69="中","2",IF(S69="短","1",IF(S69="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E69" s="2">
@@ -11714,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="str">
-        <f>IF(S70="超长","4",IF(S70="长","3",IF(S70="中","2",IF(S70="短","1",IF(S70="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70" s="2">
@@ -11771,7 +11795,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="str">
-        <f>IF(S71="超长","4",IF(S71="长","3",IF(S71="中","2",IF(S71="短","1",IF(S71="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71" s="2">
@@ -11828,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="str">
-        <f>IF(S72="超长","4",IF(S72="长","3",IF(S72="中","2",IF(S72="短","1",IF(S72="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72" s="2">
@@ -11885,7 +11909,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="str">
-        <f>IF(S73="超长","4",IF(S73="长","3",IF(S73="中","2",IF(S73="短","1",IF(S73="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73" s="2">
@@ -11942,7 +11966,7 @@
         <v>1</v>
       </c>
       <c r="D74" t="str">
-        <f>IF(S74="超长","4",IF(S74="长","3",IF(S74="中","2",IF(S74="短","1",IF(S74="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74" s="2">
@@ -11999,7 +12023,7 @@
         <v>1</v>
       </c>
       <c r="D75" t="str">
-        <f>IF(S75="超长","4",IF(S75="长","3",IF(S75="中","2",IF(S75="短","1",IF(S75="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E75" s="2">
@@ -12056,7 +12080,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="str">
-        <f>IF(S76="超长","4",IF(S76="长","3",IF(S76="中","2",IF(S76="短","1",IF(S76="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E76" s="2">
@@ -12113,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="str">
-        <f>IF(S77="超长","4",IF(S77="长","3",IF(S77="中","2",IF(S77="短","1",IF(S77="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E77" s="2">
@@ -12170,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="str">
-        <f>IF(S78="超长","4",IF(S78="长","3",IF(S78="中","2",IF(S78="短","1",IF(S78="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78" s="2">
@@ -12227,7 +12251,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="str">
-        <f>IF(S79="超长","4",IF(S79="长","3",IF(S79="中","2",IF(S79="短","1",IF(S79="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E79" s="2">
@@ -12284,7 +12308,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="str">
-        <f>IF(S80="超长","4",IF(S80="长","3",IF(S80="中","2",IF(S80="短","1",IF(S80="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E80" s="2">
@@ -12341,7 +12365,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="str">
-        <f>IF(S81="超长","4",IF(S81="长","3",IF(S81="中","2",IF(S81="短","1",IF(S81="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E81" s="2">
@@ -12398,7 +12422,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="str">
-        <f>IF(S82="超长","4",IF(S82="长","3",IF(S82="中","2",IF(S82="短","1",IF(S82="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82" s="2">
@@ -12455,7 +12479,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="str">
-        <f>IF(S83="超长","4",IF(S83="长","3",IF(S83="中","2",IF(S83="短","1",IF(S83="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E83" s="2">
@@ -12512,7 +12536,7 @@
         <v>1</v>
       </c>
       <c r="D84" t="str">
-        <f>IF(S84="超长","4",IF(S84="长","3",IF(S84="中","2",IF(S84="短","1",IF(S84="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E84" s="2">
@@ -12569,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="D85" t="str">
-        <f>IF(S85="超长","4",IF(S85="长","3",IF(S85="中","2",IF(S85="短","1",IF(S85="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E85" s="2">
@@ -12626,7 +12650,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="str">
-        <f>IF(S86="超长","4",IF(S86="长","3",IF(S86="中","2",IF(S86="短","1",IF(S86="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E86" s="2">
@@ -12683,7 +12707,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="str">
-        <f>IF(S87="超长","4",IF(S87="长","3",IF(S87="中","2",IF(S87="短","1",IF(S87="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E87" s="2">
@@ -12740,7 +12764,7 @@
         <v>1</v>
       </c>
       <c r="D88" t="str">
-        <f>IF(S88="超长","4",IF(S88="长","3",IF(S88="中","2",IF(S88="短","1",IF(S88="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E88" s="2">
@@ -12797,7 +12821,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="str">
-        <f>IF(S89="超长","4",IF(S89="长","3",IF(S89="中","2",IF(S89="短","1",IF(S89="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E89" s="2">
@@ -12854,7 +12878,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="str">
-        <f>IF(S90="超长","4",IF(S90="长","3",IF(S90="中","2",IF(S90="短","1",IF(S90="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E90" s="2">
@@ -12911,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="str">
-        <f>IF(S91="超长","4",IF(S91="长","3",IF(S91="中","2",IF(S91="短","1",IF(S91="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E91" s="2">
@@ -12968,7 +12992,7 @@
         <v>1</v>
       </c>
       <c r="D92" t="str">
-        <f>IF(S92="超长","4",IF(S92="长","3",IF(S92="中","2",IF(S92="短","1",IF(S92="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E92" s="2">
@@ -13025,7 +13049,7 @@
         <v>1</v>
       </c>
       <c r="D93" t="str">
-        <f>IF(S93="超长","4",IF(S93="长","3",IF(S93="中","2",IF(S93="短","1",IF(S93="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E93" s="2">
@@ -13082,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="str">
-        <f>IF(S94="超长","4",IF(S94="长","3",IF(S94="中","2",IF(S94="短","1",IF(S94="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E94" s="2">
@@ -13139,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="D95" t="str">
-        <f>IF(S95="超长","4",IF(S95="长","3",IF(S95="中","2",IF(S95="短","1",IF(S95="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E95" s="2">
@@ -13196,7 +13220,7 @@
         <v>1</v>
       </c>
       <c r="D96" t="str">
-        <f>IF(S96="超长","4",IF(S96="长","3",IF(S96="中","2",IF(S96="短","1",IF(S96="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E96" s="2">
@@ -13253,7 +13277,7 @@
         <v>1</v>
       </c>
       <c r="D97" t="str">
-        <f>IF(S97="超长","4",IF(S97="长","3",IF(S97="中","2",IF(S97="短","1",IF(S97="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E97" s="2">
@@ -13310,7 +13334,7 @@
         <v>1</v>
       </c>
       <c r="D98" t="str">
-        <f>IF(S98="超长","4",IF(S98="长","3",IF(S98="中","2",IF(S98="短","1",IF(S98="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E98" s="2">
@@ -13367,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="str">
-        <f>IF(S99="超长","4",IF(S99="长","3",IF(S99="中","2",IF(S99="短","1",IF(S99="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99" s="2">
@@ -13424,7 +13448,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="str">
-        <f>IF(S100="超长","4",IF(S100="长","3",IF(S100="中","2",IF(S100="短","1",IF(S100="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E100" s="2">
@@ -13481,7 +13505,7 @@
         <v>1</v>
       </c>
       <c r="D101" t="str">
-        <f>IF(S101="超长","4",IF(S101="长","3",IF(S101="中","2",IF(S101="短","1",IF(S101="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E101" s="2">
@@ -13538,7 +13562,7 @@
         <v>1</v>
       </c>
       <c r="D102" t="str">
-        <f>IF(S102="超长","4",IF(S102="长","3",IF(S102="中","2",IF(S102="短","1",IF(S102="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E102" s="2">
@@ -13595,7 +13619,7 @@
         <v>1</v>
       </c>
       <c r="D103" t="str">
-        <f>IF(S103="超长","4",IF(S103="长","3",IF(S103="中","2",IF(S103="短","1",IF(S103="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E103" s="2">
@@ -13652,7 +13676,7 @@
         <v>1</v>
       </c>
       <c r="D104" t="str">
-        <f>IF(S104="超长","4",IF(S104="长","3",IF(S104="中","2",IF(S104="短","1",IF(S104="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E104" s="2">
@@ -13709,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="D105" t="str">
-        <f>IF(S105="超长","4",IF(S105="长","3",IF(S105="中","2",IF(S105="短","1",IF(S105="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E105" s="2">
@@ -13766,7 +13790,7 @@
         <v>1</v>
       </c>
       <c r="D106" t="str">
-        <f>IF(S106="超长","4",IF(S106="长","3",IF(S106="中","2",IF(S106="短","1",IF(S106="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E106" s="2">
@@ -13823,7 +13847,7 @@
         <v>1</v>
       </c>
       <c r="D107" t="str">
-        <f>IF(S107="超长","4",IF(S107="长","3",IF(S107="中","2",IF(S107="短","1",IF(S107="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E107" s="2">
@@ -13880,7 +13904,7 @@
         <v>1</v>
       </c>
       <c r="D108" t="str">
-        <f>IF(S108="超长","4",IF(S108="长","3",IF(S108="中","2",IF(S108="短","1",IF(S108="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E108" s="2">
@@ -13937,7 +13961,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="str">
-        <f>IF(S109="超长","4",IF(S109="长","3",IF(S109="中","2",IF(S109="短","1",IF(S109="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E109" s="2">
@@ -13994,7 +14018,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="str">
-        <f>IF(S110="超长","4",IF(S110="长","3",IF(S110="中","2",IF(S110="短","1",IF(S110="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E110" s="2">
@@ -14051,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="D111" t="str">
-        <f>IF(S111="超长","4",IF(S111="长","3",IF(S111="中","2",IF(S111="短","1",IF(S111="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E111" s="2">
@@ -14108,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="D112" t="str">
-        <f>IF(S112="超长","4",IF(S112="长","3",IF(S112="中","2",IF(S112="短","1",IF(S112="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E112" s="2">
@@ -14165,7 +14189,7 @@
         <v>1</v>
       </c>
       <c r="D113" t="str">
-        <f>IF(S113="超长","4",IF(S113="长","3",IF(S113="中","2",IF(S113="短","1",IF(S113="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E113" s="2">
@@ -14222,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="str">
-        <f>IF(S114="超长","4",IF(S114="长","3",IF(S114="中","2",IF(S114="短","1",IF(S114="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E114" s="2">
@@ -14279,7 +14303,7 @@
         <v>1</v>
       </c>
       <c r="D115" t="str">
-        <f>IF(S115="超长","4",IF(S115="长","3",IF(S115="中","2",IF(S115="短","1",IF(S115="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E115" s="2">
@@ -14336,7 +14360,7 @@
         <v>1</v>
       </c>
       <c r="D116" t="str">
-        <f>IF(S116="超长","4",IF(S116="长","3",IF(S116="中","2",IF(S116="短","1",IF(S116="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E116" s="2">
@@ -14393,7 +14417,7 @@
         <v>1</v>
       </c>
       <c r="D117" t="str">
-        <f>IF(S117="超长","4",IF(S117="长","3",IF(S117="中","2",IF(S117="短","1",IF(S117="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E117" s="2">
@@ -14450,7 +14474,7 @@
         <v>1</v>
       </c>
       <c r="D118" t="str">
-        <f>IF(S118="超长","4",IF(S118="长","3",IF(S118="中","2",IF(S118="短","1",IF(S118="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E118" s="2">
@@ -14507,7 +14531,7 @@
         <v>1</v>
       </c>
       <c r="D119" t="str">
-        <f>IF(S119="超长","4",IF(S119="长","3",IF(S119="中","2",IF(S119="短","1",IF(S119="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E119" s="2">
@@ -14564,7 +14588,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="str">
-        <f>IF(S120="超长","4",IF(S120="长","3",IF(S120="中","2",IF(S120="短","1",IF(S120="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E120" s="2">
@@ -14621,7 +14645,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="str">
-        <f>IF(S121="超长","4",IF(S121="长","3",IF(S121="中","2",IF(S121="短","1",IF(S121="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E121" s="2">
@@ -14678,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="D122" t="str">
-        <f>IF(S122="超长","4",IF(S122="长","3",IF(S122="中","2",IF(S122="短","1",IF(S122="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E122" s="2">
@@ -14735,7 +14759,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="str">
-        <f>IF(S123="超长","4",IF(S123="长","3",IF(S123="中","2",IF(S123="短","1",IF(S123="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E123" s="2">
@@ -14792,7 +14816,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="str">
-        <f>IF(S124="超长","4",IF(S124="长","3",IF(S124="中","2",IF(S124="短","1",IF(S124="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E124" s="2">
@@ -14849,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="str">
-        <f>IF(S125="超长","4",IF(S125="长","3",IF(S125="中","2",IF(S125="短","1",IF(S125="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E125" s="2">
@@ -14906,7 +14930,7 @@
         <v>1</v>
       </c>
       <c r="D126" t="str">
-        <f>IF(S126="超长","4",IF(S126="长","3",IF(S126="中","2",IF(S126="短","1",IF(S126="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E126" s="2">
@@ -14963,7 +14987,7 @@
         <v>1</v>
       </c>
       <c r="D127" t="str">
-        <f>IF(S127="超长","4",IF(S127="长","3",IF(S127="中","2",IF(S127="短","1",IF(S127="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E127" s="2">
@@ -15020,7 +15044,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="str">
-        <f>IF(S128="超长","4",IF(S128="长","3",IF(S128="中","2",IF(S128="短","1",IF(S128="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E128" s="2">
@@ -15077,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="str">
-        <f>IF(S129="超长","4",IF(S129="长","3",IF(S129="中","2",IF(S129="短","1",IF(S129="无","0")))))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E129" s="2">
@@ -15134,7 +15158,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="str">
-        <f>IF(S130="超长","4",IF(S130="长","3",IF(S130="中","2",IF(S130="短","1",IF(S130="无","0")))))</f>
+        <f t="shared" ref="D130:D193" si="2">IF(S130="超长","4",IF(S130="长","3",IF(S130="中","2",IF(S130="短","1",IF(S130="无","0")))))</f>
         <v>0</v>
       </c>
       <c r="E130" s="2">
@@ -15191,7 +15215,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="str">
-        <f>IF(S131="超长","4",IF(S131="长","3",IF(S131="中","2",IF(S131="短","1",IF(S131="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E131" s="2">
@@ -15248,7 +15272,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="str">
-        <f>IF(S132="超长","4",IF(S132="长","3",IF(S132="中","2",IF(S132="短","1",IF(S132="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E132" s="2">
@@ -15305,7 +15329,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="str">
-        <f>IF(S133="超长","4",IF(S133="长","3",IF(S133="中","2",IF(S133="短","1",IF(S133="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E133" s="2">
@@ -15362,7 +15386,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="str">
-        <f>IF(S134="超长","4",IF(S134="长","3",IF(S134="中","2",IF(S134="短","1",IF(S134="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E134" s="2">
@@ -15419,7 +15443,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="str">
-        <f>IF(S135="超长","4",IF(S135="长","3",IF(S135="中","2",IF(S135="短","1",IF(S135="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E135" s="2">
@@ -15476,7 +15500,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="str">
-        <f>IF(S136="超长","4",IF(S136="长","3",IF(S136="中","2",IF(S136="短","1",IF(S136="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136" s="2">
@@ -15533,7 +15557,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="str">
-        <f>IF(S137="超长","4",IF(S137="长","3",IF(S137="中","2",IF(S137="短","1",IF(S137="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137" s="2">
@@ -15590,7 +15614,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="str">
-        <f>IF(S138="超长","4",IF(S138="长","3",IF(S138="中","2",IF(S138="短","1",IF(S138="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E138" s="2">
@@ -15647,7 +15671,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="str">
-        <f>IF(S139="超长","4",IF(S139="长","3",IF(S139="中","2",IF(S139="短","1",IF(S139="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E139" s="2">
@@ -15704,7 +15728,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="str">
-        <f>IF(S140="超长","4",IF(S140="长","3",IF(S140="中","2",IF(S140="短","1",IF(S140="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140" s="2">
@@ -15761,7 +15785,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="str">
-        <f>IF(S141="超长","4",IF(S141="长","3",IF(S141="中","2",IF(S141="短","1",IF(S141="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E141" s="2">
@@ -15818,7 +15842,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="str">
-        <f>IF(S142="超长","4",IF(S142="长","3",IF(S142="中","2",IF(S142="短","1",IF(S142="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E142" s="2">
@@ -15875,7 +15899,7 @@
         <v>1</v>
       </c>
       <c r="D143" t="str">
-        <f>IF(S143="超长","4",IF(S143="长","3",IF(S143="中","2",IF(S143="短","1",IF(S143="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E143" s="2">
@@ -15932,7 +15956,7 @@
         <v>1</v>
       </c>
       <c r="D144" t="str">
-        <f>IF(S144="超长","4",IF(S144="长","3",IF(S144="中","2",IF(S144="短","1",IF(S144="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144" s="2">
@@ -15989,7 +16013,7 @@
         <v>1</v>
       </c>
       <c r="D145" t="str">
-        <f>IF(S145="超长","4",IF(S145="长","3",IF(S145="中","2",IF(S145="短","1",IF(S145="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E145" s="2">
@@ -16046,7 +16070,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="str">
-        <f>IF(S146="超长","4",IF(S146="长","3",IF(S146="中","2",IF(S146="短","1",IF(S146="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E146" s="2">
@@ -16103,7 +16127,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="str">
-        <f>IF(S147="超长","4",IF(S147="长","3",IF(S147="中","2",IF(S147="短","1",IF(S147="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E147" s="2">
@@ -16160,7 +16184,7 @@
         <v>1</v>
       </c>
       <c r="D148" t="str">
-        <f>IF(S148="超长","4",IF(S148="长","3",IF(S148="中","2",IF(S148="短","1",IF(S148="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E148" s="2">
@@ -16217,7 +16241,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="str">
-        <f>IF(S149="超长","4",IF(S149="长","3",IF(S149="中","2",IF(S149="短","1",IF(S149="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149" s="2">
@@ -16274,7 +16298,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="str">
-        <f>IF(S150="超长","4",IF(S150="长","3",IF(S150="中","2",IF(S150="短","1",IF(S150="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E150" s="2">
@@ -16331,7 +16355,7 @@
         <v>1</v>
       </c>
       <c r="D151" t="str">
-        <f>IF(S151="超长","4",IF(S151="长","3",IF(S151="中","2",IF(S151="短","1",IF(S151="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E151" s="2">
@@ -16388,7 +16412,7 @@
         <v>1</v>
       </c>
       <c r="D152" t="str">
-        <f>IF(S152="超长","4",IF(S152="长","3",IF(S152="中","2",IF(S152="短","1",IF(S152="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E152" s="2">
@@ -16445,7 +16469,7 @@
         <v>1</v>
       </c>
       <c r="D153" t="str">
-        <f>IF(S153="超长","4",IF(S153="长","3",IF(S153="中","2",IF(S153="短","1",IF(S153="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E153" s="2">
@@ -16502,7 +16526,7 @@
         <v>1</v>
       </c>
       <c r="D154" t="str">
-        <f>IF(S154="超长","4",IF(S154="长","3",IF(S154="中","2",IF(S154="短","1",IF(S154="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E154" s="2">
@@ -16559,7 +16583,7 @@
         <v>1</v>
       </c>
       <c r="D155" t="str">
-        <f>IF(S155="超长","4",IF(S155="长","3",IF(S155="中","2",IF(S155="短","1",IF(S155="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E155" s="2">
@@ -16616,7 +16640,7 @@
         <v>1</v>
       </c>
       <c r="D156" t="str">
-        <f>IF(S156="超长","4",IF(S156="长","3",IF(S156="中","2",IF(S156="短","1",IF(S156="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E156" s="2">
@@ -16673,7 +16697,7 @@
         <v>1</v>
       </c>
       <c r="D157" t="str">
-        <f>IF(S157="超长","4",IF(S157="长","3",IF(S157="中","2",IF(S157="短","1",IF(S157="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157" s="2">
@@ -16730,7 +16754,7 @@
         <v>1</v>
       </c>
       <c r="D158" t="str">
-        <f>IF(S158="超长","4",IF(S158="长","3",IF(S158="中","2",IF(S158="短","1",IF(S158="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E158" s="2">
@@ -16787,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="str">
-        <f>IF(S159="超长","4",IF(S159="长","3",IF(S159="中","2",IF(S159="短","1",IF(S159="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E159" s="2">
@@ -16844,7 +16868,7 @@
         <v>1</v>
       </c>
       <c r="D160" t="str">
-        <f>IF(S160="超长","4",IF(S160="长","3",IF(S160="中","2",IF(S160="短","1",IF(S160="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E160" s="2">
@@ -16901,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="D161" t="str">
-        <f>IF(S161="超长","4",IF(S161="长","3",IF(S161="中","2",IF(S161="短","1",IF(S161="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E161" s="2">
@@ -16958,7 +16982,7 @@
         <v>1</v>
       </c>
       <c r="D162" t="str">
-        <f>IF(S162="超长","4",IF(S162="长","3",IF(S162="中","2",IF(S162="短","1",IF(S162="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E162" s="2">
@@ -17015,7 +17039,7 @@
         <v>1</v>
       </c>
       <c r="D163" t="str">
-        <f>IF(S163="超长","4",IF(S163="长","3",IF(S163="中","2",IF(S163="短","1",IF(S163="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E163" s="2">
@@ -17072,7 +17096,7 @@
         <v>1</v>
       </c>
       <c r="D164" t="str">
-        <f>IF(S164="超长","4",IF(S164="长","3",IF(S164="中","2",IF(S164="短","1",IF(S164="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E164" s="2">
@@ -17129,7 +17153,7 @@
         <v>1</v>
       </c>
       <c r="D165" t="str">
-        <f>IF(S165="超长","4",IF(S165="长","3",IF(S165="中","2",IF(S165="短","1",IF(S165="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E165" s="2">
@@ -17186,7 +17210,7 @@
         <v>1</v>
       </c>
       <c r="D166" t="str">
-        <f>IF(S166="超长","4",IF(S166="长","3",IF(S166="中","2",IF(S166="短","1",IF(S166="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E166" s="2">
@@ -17243,7 +17267,7 @@
         <v>1</v>
       </c>
       <c r="D167" t="str">
-        <f>IF(S167="超长","4",IF(S167="长","3",IF(S167="中","2",IF(S167="短","1",IF(S167="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167" s="2">
@@ -17300,7 +17324,7 @@
         <v>1</v>
       </c>
       <c r="D168" t="str">
-        <f>IF(S168="超长","4",IF(S168="长","3",IF(S168="中","2",IF(S168="短","1",IF(S168="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E168" s="2">
@@ -17357,7 +17381,7 @@
         <v>1</v>
       </c>
       <c r="D169" t="str">
-        <f>IF(S169="超长","4",IF(S169="长","3",IF(S169="中","2",IF(S169="短","1",IF(S169="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E169" s="2">
@@ -17414,7 +17438,7 @@
         <v>1</v>
       </c>
       <c r="D170" t="str">
-        <f>IF(S170="超长","4",IF(S170="长","3",IF(S170="中","2",IF(S170="短","1",IF(S170="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E170" s="2">
@@ -17471,7 +17495,7 @@
         <v>1</v>
       </c>
       <c r="D171" t="str">
-        <f>IF(S171="超长","4",IF(S171="长","3",IF(S171="中","2",IF(S171="短","1",IF(S171="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E171" s="2">
@@ -17528,7 +17552,7 @@
         <v>1</v>
       </c>
       <c r="D172" t="str">
-        <f>IF(S172="超长","4",IF(S172="长","3",IF(S172="中","2",IF(S172="短","1",IF(S172="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E172" s="2">
@@ -17585,7 +17609,7 @@
         <v>1</v>
       </c>
       <c r="D173" t="str">
-        <f>IF(S173="超长","4",IF(S173="长","3",IF(S173="中","2",IF(S173="短","1",IF(S173="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E173" s="2">
@@ -17642,7 +17666,7 @@
         <v>1</v>
       </c>
       <c r="D174" t="str">
-        <f>IF(S174="超长","4",IF(S174="长","3",IF(S174="中","2",IF(S174="短","1",IF(S174="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E174" s="2">
@@ -17699,7 +17723,7 @@
         <v>1</v>
       </c>
       <c r="D175" t="str">
-        <f>IF(S175="超长","4",IF(S175="长","3",IF(S175="中","2",IF(S175="短","1",IF(S175="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E175" s="2">
@@ -17756,7 +17780,7 @@
         <v>1</v>
       </c>
       <c r="D176" t="str">
-        <f>IF(S176="超长","4",IF(S176="长","3",IF(S176="中","2",IF(S176="短","1",IF(S176="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176" s="2">
@@ -17813,7 +17837,7 @@
         <v>1</v>
       </c>
       <c r="D177" t="str">
-        <f>IF(S177="超长","4",IF(S177="长","3",IF(S177="中","2",IF(S177="短","1",IF(S177="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E177" s="2">
@@ -17870,7 +17894,7 @@
         <v>1</v>
       </c>
       <c r="D178" t="str">
-        <f>IF(S178="超长","4",IF(S178="长","3",IF(S178="中","2",IF(S178="短","1",IF(S178="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E178" s="2">
@@ -17927,7 +17951,7 @@
         <v>1</v>
       </c>
       <c r="D179" t="str">
-        <f>IF(S179="超长","4",IF(S179="长","3",IF(S179="中","2",IF(S179="短","1",IF(S179="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E179" s="2">
@@ -17984,7 +18008,7 @@
         <v>1</v>
       </c>
       <c r="D180" t="str">
-        <f>IF(S180="超长","4",IF(S180="长","3",IF(S180="中","2",IF(S180="短","1",IF(S180="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E180" s="2">
@@ -18041,7 +18065,7 @@
         <v>1</v>
       </c>
       <c r="D181" t="str">
-        <f>IF(S181="超长","4",IF(S181="长","3",IF(S181="中","2",IF(S181="短","1",IF(S181="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E181" s="2">
@@ -18098,7 +18122,7 @@
         <v>1</v>
       </c>
       <c r="D182" t="str">
-        <f>IF(S182="超长","4",IF(S182="长","3",IF(S182="中","2",IF(S182="短","1",IF(S182="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E182" s="2">
@@ -18155,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="D183" t="str">
-        <f>IF(S183="超长","4",IF(S183="长","3",IF(S183="中","2",IF(S183="短","1",IF(S183="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E183" s="2">
@@ -18212,7 +18236,7 @@
         <v>1</v>
       </c>
       <c r="D184" t="str">
-        <f>IF(S184="超长","4",IF(S184="长","3",IF(S184="中","2",IF(S184="短","1",IF(S184="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E184" s="2">
@@ -18269,7 +18293,7 @@
         <v>1</v>
       </c>
       <c r="D185" t="str">
-        <f>IF(S185="超长","4",IF(S185="长","3",IF(S185="中","2",IF(S185="短","1",IF(S185="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E185" s="2">
@@ -18326,7 +18350,7 @@
         <v>1</v>
       </c>
       <c r="D186" t="str">
-        <f>IF(S186="超长","4",IF(S186="长","3",IF(S186="中","2",IF(S186="短","1",IF(S186="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E186" s="2">
@@ -18383,7 +18407,7 @@
         <v>1</v>
       </c>
       <c r="D187" t="str">
-        <f>IF(S187="超长","4",IF(S187="长","3",IF(S187="中","2",IF(S187="短","1",IF(S187="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E187" s="2">
@@ -18440,7 +18464,7 @@
         <v>1</v>
       </c>
       <c r="D188" t="str">
-        <f>IF(S188="超长","4",IF(S188="长","3",IF(S188="中","2",IF(S188="短","1",IF(S188="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E188" s="2">
@@ -18497,7 +18521,7 @@
         <v>1</v>
       </c>
       <c r="D189" t="str">
-        <f>IF(S189="超长","4",IF(S189="长","3",IF(S189="中","2",IF(S189="短","1",IF(S189="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E189" s="2">
@@ -18554,7 +18578,7 @@
         <v>1</v>
       </c>
       <c r="D190" t="str">
-        <f>IF(S190="超长","4",IF(S190="长","3",IF(S190="中","2",IF(S190="短","1",IF(S190="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E190" s="2">
@@ -18611,7 +18635,7 @@
         <v>1</v>
       </c>
       <c r="D191" t="str">
-        <f>IF(S191="超长","4",IF(S191="长","3",IF(S191="中","2",IF(S191="短","1",IF(S191="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E191" s="2">
@@ -18668,7 +18692,7 @@
         <v>1</v>
       </c>
       <c r="D192" t="str">
-        <f>IF(S192="超长","4",IF(S192="长","3",IF(S192="中","2",IF(S192="短","1",IF(S192="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E192" s="2">
@@ -18725,7 +18749,7 @@
         <v>1</v>
       </c>
       <c r="D193" t="str">
-        <f>IF(S193="超长","4",IF(S193="长","3",IF(S193="中","2",IF(S193="短","1",IF(S193="无","0")))))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E193" s="2">
@@ -18782,7 +18806,7 @@
         <v>1</v>
       </c>
       <c r="D194" t="str">
-        <f>IF(S194="超长","4",IF(S194="长","3",IF(S194="中","2",IF(S194="短","1",IF(S194="无","0")))))</f>
+        <f t="shared" ref="D194:D230" si="3">IF(S194="超长","4",IF(S194="长","3",IF(S194="中","2",IF(S194="短","1",IF(S194="无","0")))))</f>
         <v>0</v>
       </c>
       <c r="E194" s="2">
@@ -18839,7 +18863,7 @@
         <v>1</v>
       </c>
       <c r="D195" t="str">
-        <f>IF(S195="超长","4",IF(S195="长","3",IF(S195="中","2",IF(S195="短","1",IF(S195="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E195" s="2">
@@ -18896,7 +18920,7 @@
         <v>1</v>
       </c>
       <c r="D196" t="str">
-        <f>IF(S196="超长","4",IF(S196="长","3",IF(S196="中","2",IF(S196="短","1",IF(S196="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E196" s="2">
@@ -18953,7 +18977,7 @@
         <v>1</v>
       </c>
       <c r="D197" t="str">
-        <f>IF(S197="超长","4",IF(S197="长","3",IF(S197="中","2",IF(S197="短","1",IF(S197="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E197" s="2">
@@ -19010,7 +19034,7 @@
         <v>1</v>
       </c>
       <c r="D198" t="str">
-        <f>IF(S198="超长","4",IF(S198="长","3",IF(S198="中","2",IF(S198="短","1",IF(S198="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E198" s="2">
@@ -19067,7 +19091,7 @@
         <v>1</v>
       </c>
       <c r="D199" t="str">
-        <f>IF(S199="超长","4",IF(S199="长","3",IF(S199="中","2",IF(S199="短","1",IF(S199="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E199" s="2">
@@ -19124,7 +19148,7 @@
         <v>1</v>
       </c>
       <c r="D200" t="str">
-        <f>IF(S200="超长","4",IF(S200="长","3",IF(S200="中","2",IF(S200="短","1",IF(S200="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E200" s="2">
@@ -19181,7 +19205,7 @@
         <v>1</v>
       </c>
       <c r="D201" t="str">
-        <f>IF(S201="超长","4",IF(S201="长","3",IF(S201="中","2",IF(S201="短","1",IF(S201="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E201" s="2">
@@ -19238,7 +19262,7 @@
         <v>1</v>
       </c>
       <c r="D202" t="str">
-        <f>IF(S202="超长","4",IF(S202="长","3",IF(S202="中","2",IF(S202="短","1",IF(S202="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E202" s="2">
@@ -19295,7 +19319,7 @@
         <v>1</v>
       </c>
       <c r="D203" t="str">
-        <f>IF(S203="超长","4",IF(S203="长","3",IF(S203="中","2",IF(S203="短","1",IF(S203="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E203" s="2">
@@ -19352,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="D204" t="str">
-        <f>IF(S204="超长","4",IF(S204="长","3",IF(S204="中","2",IF(S204="短","1",IF(S204="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E204" s="2">
@@ -19409,7 +19433,7 @@
         <v>1</v>
       </c>
       <c r="D205" t="str">
-        <f>IF(S205="超长","4",IF(S205="长","3",IF(S205="中","2",IF(S205="短","1",IF(S205="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E205" s="2">
@@ -19466,7 +19490,7 @@
         <v>1</v>
       </c>
       <c r="D206" t="str">
-        <f>IF(S206="超长","4",IF(S206="长","3",IF(S206="中","2",IF(S206="短","1",IF(S206="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E206" s="2">
@@ -19523,7 +19547,7 @@
         <v>1</v>
       </c>
       <c r="D207" t="str">
-        <f>IF(S207="超长","4",IF(S207="长","3",IF(S207="中","2",IF(S207="短","1",IF(S207="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207" s="2">
@@ -19580,7 +19604,7 @@
         <v>1</v>
       </c>
       <c r="D208" t="str">
-        <f>IF(S208="超长","4",IF(S208="长","3",IF(S208="中","2",IF(S208="短","1",IF(S208="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E208" s="2">
@@ -19637,7 +19661,7 @@
         <v>1</v>
       </c>
       <c r="D209" t="str">
-        <f>IF(S209="超长","4",IF(S209="长","3",IF(S209="中","2",IF(S209="短","1",IF(S209="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E209" s="2">
@@ -19694,7 +19718,7 @@
         <v>1</v>
       </c>
       <c r="D210" t="str">
-        <f>IF(S210="超长","4",IF(S210="长","3",IF(S210="中","2",IF(S210="短","1",IF(S210="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E210" s="2">
@@ -19751,7 +19775,7 @@
         <v>1</v>
       </c>
       <c r="D211" t="str">
-        <f>IF(S211="超长","4",IF(S211="长","3",IF(S211="中","2",IF(S211="短","1",IF(S211="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211" s="2">
@@ -19808,7 +19832,7 @@
         <v>1</v>
       </c>
       <c r="D212" t="str">
-        <f>IF(S212="超长","4",IF(S212="长","3",IF(S212="中","2",IF(S212="短","1",IF(S212="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E212" s="2">
@@ -19865,7 +19889,7 @@
         <v>1</v>
       </c>
       <c r="D213" t="str">
-        <f>IF(S213="超长","4",IF(S213="长","3",IF(S213="中","2",IF(S213="短","1",IF(S213="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E213" s="2">
@@ -19922,7 +19946,7 @@
         <v>1</v>
       </c>
       <c r="D214" t="str">
-        <f>IF(S214="超长","4",IF(S214="长","3",IF(S214="中","2",IF(S214="短","1",IF(S214="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E214" s="2">
@@ -19979,7 +20003,7 @@
         <v>1</v>
       </c>
       <c r="D215" t="str">
-        <f>IF(S215="超长","4",IF(S215="长","3",IF(S215="中","2",IF(S215="短","1",IF(S215="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E215" s="2">
@@ -20036,7 +20060,7 @@
         <v>1</v>
       </c>
       <c r="D216" t="str">
-        <f>IF(S216="超长","4",IF(S216="长","3",IF(S216="中","2",IF(S216="短","1",IF(S216="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E216" s="2">
@@ -20093,7 +20117,7 @@
         <v>1</v>
       </c>
       <c r="D217" t="str">
-        <f>IF(S217="超长","4",IF(S217="长","3",IF(S217="中","2",IF(S217="短","1",IF(S217="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E217" s="2">
@@ -20150,7 +20174,7 @@
         <v>1</v>
       </c>
       <c r="D218" t="str">
-        <f>IF(S218="超长","4",IF(S218="长","3",IF(S218="中","2",IF(S218="短","1",IF(S218="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E218" s="2">
@@ -20207,7 +20231,7 @@
         <v>1</v>
       </c>
       <c r="D219" t="str">
-        <f>IF(S219="超长","4",IF(S219="长","3",IF(S219="中","2",IF(S219="短","1",IF(S219="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E219" s="2">
@@ -20264,7 +20288,7 @@
         <v>1</v>
       </c>
       <c r="D220" t="str">
-        <f>IF(S220="超长","4",IF(S220="长","3",IF(S220="中","2",IF(S220="短","1",IF(S220="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E220" s="2">
@@ -20321,7 +20345,7 @@
         <v>1</v>
       </c>
       <c r="D221" t="str">
-        <f>IF(S221="超长","4",IF(S221="长","3",IF(S221="中","2",IF(S221="短","1",IF(S221="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E221" s="2">
@@ -20378,7 +20402,7 @@
         <v>1</v>
       </c>
       <c r="D222" t="str">
-        <f>IF(S222="超长","4",IF(S222="长","3",IF(S222="中","2",IF(S222="短","1",IF(S222="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E222" s="2">
@@ -20435,7 +20459,7 @@
         <v>1</v>
       </c>
       <c r="D223" t="str">
-        <f>IF(S223="超长","4",IF(S223="长","3",IF(S223="中","2",IF(S223="短","1",IF(S223="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E223" s="2">
@@ -20492,7 +20516,7 @@
         <v>1</v>
       </c>
       <c r="D224" t="str">
-        <f>IF(S224="超长","4",IF(S224="长","3",IF(S224="中","2",IF(S224="短","1",IF(S224="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E224" s="2">
@@ -20549,7 +20573,7 @@
         <v>1</v>
       </c>
       <c r="D225" t="str">
-        <f>IF(S225="超长","4",IF(S225="长","3",IF(S225="中","2",IF(S225="短","1",IF(S225="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E225" s="2">
@@ -20606,7 +20630,7 @@
         <v>1</v>
       </c>
       <c r="D226" t="str">
-        <f>IF(S226="超长","4",IF(S226="长","3",IF(S226="中","2",IF(S226="短","1",IF(S226="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E226" s="2">
@@ -20663,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="D227" t="str">
-        <f>IF(S227="超长","4",IF(S227="长","3",IF(S227="中","2",IF(S227="短","1",IF(S227="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E227" s="2">
@@ -20720,7 +20744,7 @@
         <v>1</v>
       </c>
       <c r="D228" t="str">
-        <f>IF(S228="超长","4",IF(S228="长","3",IF(S228="中","2",IF(S228="短","1",IF(S228="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E228" s="2">
@@ -20777,7 +20801,7 @@
         <v>1</v>
       </c>
       <c r="D229" t="str">
-        <f>IF(S229="超长","4",IF(S229="长","3",IF(S229="中","2",IF(S229="短","1",IF(S229="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E229" s="2">
@@ -20834,7 +20858,7 @@
         <v>1</v>
       </c>
       <c r="D230" t="str">
-        <f>IF(S230="超长","4",IF(S230="长","3",IF(S230="中","2",IF(S230="短","1",IF(S230="无","0")))))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E230" s="2">
@@ -20878,6 +20902,276 @@
       </c>
       <c r="S230" s="2" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A234" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="J234" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="K234" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="L234" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="M234" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="N234" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="O234" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="P234" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q234" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>3</v>
+      </c>
+      <c r="E235">
+        <v>20</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>5</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>20</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>2</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <v>5</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>3</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>3</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>18</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>5</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>4</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C238">
+        <v>4</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>10</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>8</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>7</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
